--- a/presentation-and-publication-information/lab2-1-4.xlsx
+++ b/presentation-and-publication-information/lab2-1-4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rgpu\presentation-and-publication-information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76002196-2F4D-4183-A759-1E90129EB549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B4341E-FADD-4790-B2EC-D46A965FA9E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Оценка презентаций" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>Автор: Моисеенко Павел</t>
   </si>
@@ -46,6 +46,87 @@
   </si>
   <si>
     <t>ФИО выступающего</t>
+  </si>
+  <si>
+    <t>Ёлкина Галина</t>
+  </si>
+  <si>
+    <t>Логинова Софья</t>
+  </si>
+  <si>
+    <t>Моисеенко Павел</t>
+  </si>
+  <si>
+    <t>Терентьева Анастасия</t>
+  </si>
+  <si>
+    <t>Трубкина Александра</t>
+  </si>
+  <si>
+    <t>Чернявка Никита</t>
+  </si>
+  <si>
+    <t>Шеховцова Елизавета</t>
+  </si>
+  <si>
+    <t>Шульман Эмиль</t>
+  </si>
+  <si>
+    <t>Минималистичный дизайн презентации, хорошо подготовленное выступление.</t>
+  </si>
+  <si>
+    <t>Слишком многом слов-уточнений (если быть точном, а точнее и т. д.), на слайде со структурой организации розовый шрифт очень тонкий и плохо виден, на сладе «Как мы росли» используется сложночитаемый шрифт.</t>
+  </si>
+  <si>
+    <t>Елистратов Иван</t>
+  </si>
+  <si>
+    <t>Небольшие опечатки в презентации, нет логотипа компании на сладйах.</t>
+  </si>
+  <si>
+    <t>Для сотрудников</t>
+  </si>
+  <si>
+    <t>Интересное и необычное выступление.</t>
+  </si>
+  <si>
+    <t>На таблице доходов после названия таблицы стоит точка.</t>
+  </si>
+  <si>
+    <t>Для клиентов</t>
+  </si>
+  <si>
+    <t>Возможно стоило вместо импровизации подготовить текст выступления, и нужно исправить минусы.</t>
+  </si>
+  <si>
+    <t>Нужно исправить минусы.</t>
+  </si>
+  <si>
+    <t>Слишком быстрое переключение слайда с содержанием, на 7 слайде ссылка на содержание вылезла за рамки, на вкладке про идеального сотрудника нет основных пунктов, нет логотипа компании на слайдах, не понятна специализация компании.</t>
+  </si>
+  <si>
+    <t>Для инвесторов</t>
+  </si>
+  <si>
+    <t>Финальный слайд банальный, мало информации именно для инвесторов в самой презентации.</t>
+  </si>
+  <si>
+    <t>Минималистичный дизайн презентации, интересное и необычное выступление.</t>
+  </si>
+  <si>
+    <t>«Доброго времени суток» устаревшее обращение, некорректная фраза «В оглавление», на слайде «Наши доходы» на легенде на первой строке стоит не самая большая категория, нет логотипа компании на слайдах.</t>
+  </si>
+  <si>
+    <t>Стоило получше подготовиться, чтобы не волноваться во время выступления, возможно добавить нумерацию слайдов и также стоит развивать навыки импровизационного ответа.</t>
+  </si>
+  <si>
+    <t>Минималистичная презентация, хорошо подготовленное выступление.</t>
+  </si>
+  <si>
+    <t>Очень мало информации во время презентации.</t>
+  </si>
+  <si>
+    <t>Задний фон в течение презентации меняется, нет логотипа компании на слайдах.</t>
   </si>
 </sst>
 </file>
@@ -123,11 +204,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,17 +490,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="6" width="40.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -442,91 +523,187 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
